--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1644471.143845962</v>
+        <v>1731078.73724609</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916857</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6002514.199708719</v>
+        <v>6338912.955730673</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -665,13 +667,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>100.0882372087993</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>294.8362868904684</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -817,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>33.93101316652936</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +870,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>207.0358890280898</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>24.5536783345629</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>292.6788879584196</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>69.37991413606657</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>166.8316574011737</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,16 +1135,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>107.0284348409538</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1199,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>36.56453789817022</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1293,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1303,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>22.28534392847715</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>23.37536110271361</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>257.8509293824087</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1536,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>60.78001549303618</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>45.61239570677655</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1625,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>50.28454703777545</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1768,7 +1770,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>111.2693566202708</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>98.98021706930135</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>242.3339785206219</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>73.99920364759154</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>98.73120706589795</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2713,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>148.7223419617672</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>190.6369707019509</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.56919457454001</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>137.5995661138266</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3433,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>14.14416275345333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3746,7 +3748,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>321.2116102166084</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3803,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>69.45405731752537</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225782</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3983,19 +3985,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>34.4923618074419</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4138,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>94.50264048967904</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.8413732171583</v>
+        <v>1357.762053393192</v>
       </c>
       <c r="C2" t="n">
-        <v>190.7393044409857</v>
+        <v>1323.65998461702</v>
       </c>
       <c r="D2" t="n">
-        <v>158.8699236558343</v>
+        <v>1291.790603831868</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>863.2089295691367</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4328,25 +4330,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4361,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1075.344177331261</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>670.4887227422939</v>
+        <v>1399.368998877924</v>
       </c>
       <c r="X2" t="n">
-        <v>655.3866633620087</v>
+        <v>1384.266939497639</v>
       </c>
       <c r="Y2" t="n">
-        <v>651.1409437020661</v>
+        <v>1380.021219837696</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4415,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1644.724363562988</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1644.724363562988</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1644.724363562988</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1644.724363562988</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>712.1505728739205</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="C4" t="n">
-        <v>539.5888613571454</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="D4" t="n">
-        <v>373.7108685586682</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>339.4371178854062</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4492,19 +4494,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>453.9965675465116</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>874.0494664914149</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="O4" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1641.225609687538</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4516,22 +4518,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>1229.568731954216</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W4" t="n">
-        <v>957.542327540508</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X4" t="n">
-        <v>712.1505728739205</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="Y4" t="n">
-        <v>712.1505728739205</v>
+        <v>774.5621248982375</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.2911052642175</v>
+        <v>2476.654804597626</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1890364880448</v>
+        <v>2038.51233178105</v>
       </c>
       <c r="D5" t="n">
-        <v>489.3196557028934</v>
+        <v>1602.602546955494</v>
       </c>
       <c r="E5" t="n">
-        <v>459.5853149015927</v>
+        <v>1168.827802113789</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>740.960372522997</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>339.5625411462608</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720797</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2520.804278925291</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111165</v>
+        <v>2505.702219545006</v>
       </c>
       <c r="Y5" t="n">
-        <v>981.5906757491254</v>
+        <v>2501.456499885064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>700.5968437947135</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>700.5968437947135</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>700.5968437947135</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>700.5968437947135</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1324.697627839492</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>756.2696148467799</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>756.2696148467799</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>590.3916220483026</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>420.6336182990398</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>243.926564260796</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947708</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>453.9965675465116</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609522</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2521.619329473854</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>983.6892855326716</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>983.6892855326716</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>983.6892855326716</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>756.2696148467799</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>628.8817772575625</v>
+        <v>2190.910269352854</v>
       </c>
       <c r="C8" t="n">
-        <v>520.7722471151849</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>488.9028663300335</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>459.1685255287327</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1075.344177331261</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1074.529126782698</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1059.427067402413</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1055.18134774247</v>
+        <v>2617.209839837762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>358.5019935678207</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>778.554892512724</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>778.554892512724</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>778.554892512724</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>778.554892512724</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1580.010651986078</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.9021756729128</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C10" t="n">
-        <v>685.9021756729128</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1235.38760622724</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1655.056855453022</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1655.056855453022</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1673.57195421909</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1395.138953472196</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1395.138953472196</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>1123.112549058488</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>877.7207943919</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>877.7207943919</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>76.13761321162085</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>910.4879051697988</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>910.4879051697988</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1320.714971542187</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>1320.714971542187</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869391</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581042</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3586.813433454081</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3586.813433454081</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3326.357949229426</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2921.502494640459</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2502.36003121977</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2502.36003121977</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>400.6959381778332</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>1081.42945824821</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1081.465657964014</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>1081.465657964014</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>1081.465657964014</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O12" t="n">
-        <v>1081.465657964014</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964014</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1899.714888095855</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C13" t="n">
-        <v>1727.15317657908</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D13" t="n">
-        <v>1561.275183780603</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E13" t="n">
-        <v>1391.51718003134</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>1391.51718003134</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>1330.123224987869</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>1190.221050678244</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>1190.221050678244</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>1276.800735842933</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>1551.559190414069</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>1969.76907218203</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>2429.252939362943</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>2871.511742520587</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>3291.180991746369</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>3638.68788571671</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q13" t="n">
-        <v>3806.880660581042</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R13" t="n">
-        <v>3806.880660581042</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S13" t="n">
-        <v>3647.639291879039</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T13" t="n">
-        <v>3401.759845457494</v>
+        <v>2513.605954495037</v>
       </c>
       <c r="U13" t="n">
-        <v>3123.326844710599</v>
+        <v>2235.172953748142</v>
       </c>
       <c r="V13" t="n">
-        <v>2836.37133658103</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W13" t="n">
-        <v>2564.344932167322</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X13" t="n">
-        <v>2318.953177500734</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y13" t="n">
-        <v>2091.533506814842</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2502.36003121977</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1345.742592622717</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>1345.742592622717</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>3091.227809869391</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581042</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3806.880660581042</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3806.880660581042</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3806.880660581042</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3756.088188825714</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3336.945725405024</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2928.659601704678</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.13761321162085</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>76.13761321162085</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>76.13761321162085</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>76.13761321162085</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>76.13761321162085</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>76.13761321162085</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1018.340576705429</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.20459659609</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>900.6578317997001</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>728.0961202829251</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>728.0961202829251</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>558.3381165336624</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>381.6310624954186</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>216.0397875212463</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412417</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2287.676407990873</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2009.243407243978</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.287899114408</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.2614947007</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.869740034112</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1092.476450518687</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,49 +5518,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>3137.402081918264</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>4117.581748488571</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4945.891623321967</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4945.891623321967</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>838.9992856166232</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C19" t="n">
-        <v>838.9992856166232</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D19" t="n">
-        <v>673.1212928181459</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2597.522611637232</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2351.643165215688</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2073.210164468793</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1786.254656339223</v>
       </c>
       <c r="W19" t="n">
-        <v>1503.62932968809</v>
+        <v>1514.228251925515</v>
       </c>
       <c r="X19" t="n">
-        <v>1258.237575021502</v>
+        <v>1268.836497258927</v>
       </c>
       <c r="Y19" t="n">
-        <v>1030.81790433561</v>
+        <v>1041.416826573035</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5756,46 +5758,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3417.209496257023</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1090.187678435286</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C22" t="n">
-        <v>917.6259669185112</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>607.2585098297291</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>430.5514557914853</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2313.799635050031</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>2026.844126920461</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>1754.817722506753</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X22" t="n">
-        <v>1509.425967840165</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y22" t="n">
-        <v>1282.006297154273</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5992,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
         <v>5113.04201353898</v>
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>843.1660143917137</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C28" t="n">
-        <v>843.1660143917137</v>
+        <v>904.7306530065579</v>
       </c>
       <c r="D28" t="n">
-        <v>677.2880215932364</v>
+        <v>738.8526602080806</v>
       </c>
       <c r="E28" t="n">
-        <v>507.5300178439736</v>
+        <v>569.0946564588178</v>
       </c>
       <c r="F28" t="n">
-        <v>330.8229638057298</v>
+        <v>392.387602420574</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6418,16 +6420,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X28" t="n">
-        <v>1262.404303796593</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y28" t="n">
-        <v>1034.984633110701</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3320.902622224261</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3148.340910707486</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3148.340910707486</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>2978.582906958224</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2801.87585291998</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2636.284577945808</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5068.827026007444</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>4822.9475795859</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4544.514578839005</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4257.559070709436</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>3985.532666295728</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3740.14091162914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3512.721240943249</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6701,13 +6703,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
         <v>4132.862346968674</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>982.1554751127505</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>982.1554751127505</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>816.2774823142732</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>646.5194785650106</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>469.8124245267668</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,13 +6943,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
         <v>3569.079287993933</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>282.1391483292483</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>116.5478733550759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7154,49 +7156,49 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7217,7 +7219,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2393.041458314033</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1954.898985497457</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1518.989200671901</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>766.6655991451407</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1320.714971542187</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1320.714971542187</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1320.714971542187</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N41" t="n">
-        <v>1320.714971542187</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869391</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581042</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3586.813433454081</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3586.813433454081</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3224.196483387907</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2819.341028798941</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>2819.341028798941</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2819.341028798941</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720784</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>944.8728193312368</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>772.3111078144617</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>606.4331150159844</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>436.6751112667217</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>259.9680572284778</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>94.37678225430551</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.917776692876</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2168.484775945981</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1881.529267816412</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1609.502863402703</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1364.111108736116</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1136.691438050224</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1702.028224503796</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.885751687219</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>827.9759668616634</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>827.9759668616634</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>400.1085372708712</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G44" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>76.13761321162085</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>76.13761321162085</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>378.512008048379</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1320.714971542187</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>1320.714971542187</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869391</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827985</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764879</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3723.228786764879</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3723.228786764879</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3360.611836698706</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2955.756382109739</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2536.61391868905</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2128.327794988703</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720784</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.493131408668</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.8728193312368</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>772.3111078144617</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>676.8538951986243</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>507.0958914493616</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>330.3888374111178</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2692.797223114421</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.917776692876</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2168.484775945981</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1881.529267816412</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1609.502863402703</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1364.111108736116</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.691438050224</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8061,25 +8063,25 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>52.98895607821123</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8140,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>312.4013251831016</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>274.5472142772262</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,25 +8373,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>310.9272166398487</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191105</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8462,16 +8464,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,22 +8616,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.55209558322758</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>414.3707741135233</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8766,31 +8768,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>926.439739811392</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9018,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>609.9636564552134</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9164,13 +9166,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,13 +9181,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>168.8387779969844</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,19 +9406,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>897.2685266309059</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157522</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9650,7 +9652,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>427.9646913560541</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9896,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,19 +10120,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>655.9980117748582</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10358,7 +10360,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>973.8822356326327</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10589,16 +10591,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
-        <v>1133.488385918382</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>280.9431591680341</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,25 +11062,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>817.4976473511598</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452606</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>305.4286816532911</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452606</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>101.139851183103</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>103.1553467313944</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>197.8082562505527</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5223530053016</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>113.876117358762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>58.66873794568195</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>26.9721618489495</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>90.22000922290098</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.20415515853266</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>15.21302026266341</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>52.30086641797075</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>135.0797604404433</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>26.33579611060398</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>124.3589898130759</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>108.2253871766794</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.4463752142714</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>362.8914912555268</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>69.71657238081349</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>519325.4674734746</v>
+        <v>532007.7898967499</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>519325.4674734746</v>
+        <v>534291.2699426755</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>448582.1171968608</v>
+        <v>554805.0648018774</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>448582.1171968609</v>
+        <v>554805.0648018772</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>554805.0648018774</v>
+        <v>554805.0648018772</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>448582.1171968609</v>
+        <v>554805.0648018771</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448582.1171968609</v>
+        <v>554805.0648018772</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>455725.2219068471</v>
+      </c>
+      <c r="C2" t="n">
         <v>455725.2219068473</v>
       </c>
-      <c r="C2" t="n">
-        <v>455725.2219068471</v>
-      </c>
       <c r="D2" t="n">
-        <v>455725.2219068473</v>
+        <v>455725.2219068474</v>
       </c>
       <c r="E2" t="n">
-        <v>362087.6407144212</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="F2" t="n">
-        <v>362087.6407144212</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="G2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="H2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167495</v>
       </c>
       <c r="I2" t="n">
         <v>447828.9465167496</v>
@@ -26338,10 +26340,10 @@
         <v>447828.9465167495</v>
       </c>
       <c r="K2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="L2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="M2" t="n">
         <v>447828.9465167495</v>
@@ -26350,10 +26352,10 @@
         <v>447828.9465167494</v>
       </c>
       <c r="O2" t="n">
-        <v>362087.6407144212</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="P2" t="n">
-        <v>362087.6407144211</v>
+        <v>447828.9465167495</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501615</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998278</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.2949221039</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636919</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877251</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622321</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574194</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,31 +26420,31 @@
         <v>205960.9728418668</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171472.7657924762</v>
       </c>
       <c r="D4" t="n">
-        <v>205960.9728418668</v>
+        <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>65847.15553423097</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="F4" t="n">
-        <v>65847.15553423096</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="G4" t="n">
         <v>81439.57146904284</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904278</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="L4" t="n">
         <v>81439.57146904283</v>
@@ -26454,10 +26456,10 @@
         <v>81439.57146904283</v>
       </c>
       <c r="O4" t="n">
-        <v>65847.15553423097</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="P4" t="n">
-        <v>65847.15553423096</v>
+        <v>81439.57146904283</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800258</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48148.16026804824</v>
+        <v>48148.16026804812</v>
       </c>
       <c r="C6" t="n">
-        <v>190339.460927758</v>
+        <v>145708.4744113524</v>
       </c>
       <c r="D6" t="n">
-        <v>190339.4609277581</v>
+        <v>204722.0135355485</v>
       </c>
       <c r="E6" t="n">
-        <v>80898.60421725447</v>
+        <v>106316.0272208644</v>
       </c>
       <c r="F6" t="n">
-        <v>238375.8991393583</v>
+        <v>288671.1364419141</v>
       </c>
       <c r="G6" t="n">
-        <v>199171.3278355448</v>
+        <v>288671.1364419141</v>
       </c>
       <c r="H6" t="n">
-        <v>288671.136441914</v>
+        <v>288671.1364419142</v>
       </c>
       <c r="I6" t="n">
         <v>288671.1364419142</v>
       </c>
       <c r="J6" t="n">
-        <v>177656.671096924</v>
+        <v>177656.6710969239</v>
       </c>
       <c r="K6" t="n">
-        <v>288671.1364419141</v>
+        <v>235625.2818031417</v>
       </c>
       <c r="L6" t="n">
-        <v>288671.1364419141</v>
+        <v>279278.8347152919</v>
       </c>
       <c r="M6" t="n">
-        <v>157234.8892844948</v>
+        <v>136470.9655039266</v>
       </c>
       <c r="N6" t="n">
         <v>288671.1364419141</v>
       </c>
       <c r="O6" t="n">
-        <v>238375.8991393583</v>
+        <v>288671.1364419142</v>
       </c>
       <c r="P6" t="n">
-        <v>238375.8991393583</v>
+        <v>288671.1364419142</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251562</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394848</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251562</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483592</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939342</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251562</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394848</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,13 +27387,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>329.3487601844884</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27433,13 +27435,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>105.9706131526086</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27537,16 +27539,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>134.1294105452407</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -27597,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>35.90194809183183</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>397.4828964454958</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>111.5243745049235</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.55544808836403</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>108.817013338252</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>326.7326132474571</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27909,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>367.6387245651729</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>220.0452908546157</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34781,25 +34783,25 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>52.98895607821123</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34860,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>312.4013251831016</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,13 +35014,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>630.4048323684635</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>274.5472142772262</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35093,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>310.9272166398487</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191105</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35182,16 +35184,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201043</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.55209558322758</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>414.3707741135233</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35583,10 +35585,10 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>926.439739811392</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35738,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>609.9636564552134</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,28 +35886,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>168.8387779969844</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36124,19 +36126,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>897.2685266309059</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,10 +36369,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>427.9646913560541</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36616,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36689,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>655.9980117748582</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,7 +37080,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>973.8822356326327</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37309,16 +37311,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
-        <v>1133.488385918382</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>280.9431591680341</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37564,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>817.4976473511598</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452606</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>305.4286816532911</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>951.7201651452606</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>951.7201651452606</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38038,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1731078.73724609</v>
+        <v>1730553.554877058</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916857</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>7.038728523037709</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>294.8362868904684</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -831,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>20.0581223002846</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>207.0358890280898</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.5536783345629</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>283.7904600494996</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1062,16 +1062,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>114.3486586083432</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>166.8316574011737</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1138,16 +1138,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>201.6231249758907</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1201,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.56453789817022</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>22.28534392847715</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800139</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1432,7 +1432,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61239570677655</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1621,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>198.8096778684289</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>98.98021706930135</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800595</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>98.73120706589795</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>148.7223419617672</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>35.5167825707944</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3286,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561535</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.45405731752537</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1357.762053393192</v>
+        <v>1343.932506313052</v>
       </c>
       <c r="C2" t="n">
-        <v>1323.65998461702</v>
+        <v>915.3508320503199</v>
       </c>
       <c r="D2" t="n">
-        <v>1291.790603831868</v>
+        <v>486.7691577875882</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1386.354502346346</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1386.354502346346</v>
       </c>
       <c r="W2" t="n">
-        <v>1399.368998877924</v>
+        <v>1385.539451797783</v>
       </c>
       <c r="X2" t="n">
-        <v>1384.266939497639</v>
+        <v>1370.437392417498</v>
       </c>
       <c r="Y2" t="n">
-        <v>1380.021219837696</v>
+        <v>1366.191672757555</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.5621248982375</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C4" t="n">
-        <v>774.5621248982375</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4494,19 +4494,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>872.2064493144727</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1655.504879189542</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1655.504879189542</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>1655.504879189542</v>
       </c>
       <c r="W4" t="n">
-        <v>983.6892855326716</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X4" t="n">
-        <v>774.5621248982375</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y4" t="n">
-        <v>774.5621248982375</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2476.654804597626</v>
+        <v>425.1696414432286</v>
       </c>
       <c r="C5" t="n">
-        <v>2038.51233178105</v>
+        <v>391.0675726670559</v>
       </c>
       <c r="D5" t="n">
-        <v>1602.602546955494</v>
+        <v>104.410542314026</v>
       </c>
       <c r="E5" t="n">
-        <v>1168.827802113789</v>
+        <v>74.67620151272526</v>
       </c>
       <c r="F5" t="n">
-        <v>740.960372522997</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="G5" t="n">
-        <v>339.5625411462608</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
@@ -4582,37 +4582,37 @@
         <v>1109.787858087174</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717424</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762203</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720797</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473854</v>
+        <v>2301.552102346891</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473854</v>
+        <v>2042.329799663908</v>
       </c>
       <c r="V5" t="n">
-        <v>2521.619329473854</v>
+        <v>1679.712849597735</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.804278925291</v>
+        <v>1678.897799049172</v>
       </c>
       <c r="X5" t="n">
-        <v>2505.702219545006</v>
+        <v>1259.755335628483</v>
       </c>
       <c r="Y5" t="n">
-        <v>2501.456499885064</v>
+        <v>851.4692119281364</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326461</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993469</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>76.49605974993469</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>76.49605974993469</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>700.5968437947135</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>700.5968437947135</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>700.5968437947135</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>700.5968437947135</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1324.697627839492</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201358</v>
+        <v>593.0357356940372</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>420.4740241772621</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>254.5960313787848</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>254.5960313787848</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>254.5960313787848</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>254.5960313787848</v>
       </c>
       <c r="H7" t="n">
         <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609522</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>2521.619329473854</v>
+        <v>2500.201508179225</v>
       </c>
       <c r="S7" t="n">
-        <v>2521.619329473854</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>2521.619329473854</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>2353.102503816103</v>
+        <v>1816.647692308782</v>
       </c>
       <c r="V7" t="n">
-        <v>2066.146995686534</v>
+        <v>1529.692184179212</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1257.665779765504</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606237</v>
+        <v>1012.274025098916</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>784.8543544130243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2190.910269352854</v>
+        <v>1153.221971308028</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.767796536277</v>
+        <v>715.079498491451</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4807,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>2002.909724873567</v>
       </c>
       <c r="X8" t="n">
-        <v>2654.14371650258</v>
+        <v>1987.807665493282</v>
       </c>
       <c r="Y8" t="n">
-        <v>2617.209839837762</v>
+        <v>1579.521541792935</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>900.7186013536161</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1568898368411</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>562.2788970383638</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>392.520893289101</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>215.8138392508572</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2402.763558715255</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2124.330557968361</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.375049838791</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1565.348645425083</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1319.956890758495</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1092.537220072603</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
         <v>391.8077842004234</v>
@@ -5050,7 +5050,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423628</v>
@@ -5071,22 +5071,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1336.088111831086</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1011.560997133398</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5217,34 +5217,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2513.605954495037</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2235.172953748142</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1948.217445618573</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1676.191041204865</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1430.799286538277</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1203.379615852385</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5287,34 +5287,34 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
@@ -5323,7 +5323,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7568773477108</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>1008.757289365886</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2597.522611637232</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2351.643165215688</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2073.210164468793</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1786.254656339223</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1514.228251925515</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.836497258927</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1041.416826573035</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>777.0165135789917</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>607.2585098297291</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>430.5514557914853</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6375,10 +6375,10 @@
         <v>392.387602420574</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>226.7963274464017</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6782,22 +6782,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6943,46 +6943,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436394</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,22 +7183,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7213,7 +7213,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7420,43 +7420,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7630,19 +7630,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7657,7 +7657,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423627</v>
@@ -7730,25 +7730,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1648.327823655249</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R45" t="n">
         <v>1765.500601749588</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8142,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>312.4013251831016</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>72.80589558611109</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684635</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>274.5472142772262</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8391,10 +8391,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191105</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8698,10 +8698,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10591,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11068,19 +11068,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11305,10 +11305,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
-        <v>197.8082562505527</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>26.33579611060392</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>58.66873794568195</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.20415515853266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>15.21302026266341</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>122.4480280049973</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>554805.0648018774</v>
+        <v>554805.0648018772</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>554805.0648018772</v>
+        <v>554805.0648018774</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>554805.0648018774</v>
+        <v>554805.0648018772</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>554805.0648018771</v>
+        <v>554805.0648018772</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>455725.2219068471</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="C2" t="n">
         <v>455725.2219068473</v>
       </c>
       <c r="D2" t="n">
-        <v>455725.2219068474</v>
+        <v>455725.2219068473</v>
       </c>
       <c r="E2" t="n">
         <v>447828.9465167496</v>
@@ -26328,19 +26328,19 @@
         <v>447828.9465167495</v>
       </c>
       <c r="G2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="H2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167494</v>
       </c>
       <c r="I2" t="n">
         <v>447828.9465167496</v>
       </c>
       <c r="J2" t="n">
+        <v>447828.9465167496</v>
+      </c>
+      <c r="K2" t="n">
         <v>447828.9465167495</v>
-      </c>
-      <c r="K2" t="n">
-        <v>447828.9465167496</v>
       </c>
       <c r="L2" t="n">
         <v>447828.9465167496</v>
@@ -26349,13 +26349,13 @@
         <v>447828.9465167495</v>
       </c>
       <c r="N2" t="n">
-        <v>447828.9465167494</v>
+        <v>447828.9465167496</v>
       </c>
       <c r="O2" t="n">
         <v>447828.9465167496</v>
       </c>
       <c r="P2" t="n">
-        <v>447828.9465167495</v>
+        <v>447828.9465167496</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501615</v>
+        <v>66587.76789501605</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998278</v>
+        <v>11527.59554998289</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877251</v>
+        <v>53045.85463877242</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622321</v>
+        <v>9392.301726622407</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904278</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904278</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="I4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="M4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="N4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="O4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.5714690428</v>
       </c>
       <c r="P4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800258</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48148.16026804812</v>
+        <v>48148.16026804827</v>
       </c>
       <c r="C6" t="n">
         <v>145708.4744113524</v>
       </c>
       <c r="D6" t="n">
-        <v>204722.0135355485</v>
+        <v>204722.0135355484</v>
       </c>
       <c r="E6" t="n">
-        <v>106316.0272208644</v>
+        <v>106292.8028814819</v>
       </c>
       <c r="F6" t="n">
-        <v>288671.1364419141</v>
+        <v>288647.9121025315</v>
       </c>
       <c r="G6" t="n">
-        <v>288671.1364419141</v>
+        <v>288647.9121025316</v>
       </c>
       <c r="H6" t="n">
-        <v>288671.1364419142</v>
+        <v>288647.9121025315</v>
       </c>
       <c r="I6" t="n">
-        <v>288671.1364419142</v>
+        <v>288647.9121025316</v>
       </c>
       <c r="J6" t="n">
-        <v>177656.6710969239</v>
+        <v>177633.4467575414</v>
       </c>
       <c r="K6" t="n">
-        <v>235625.2818031417</v>
+        <v>235602.0574637591</v>
       </c>
       <c r="L6" t="n">
-        <v>279278.8347152919</v>
+        <v>279255.6103759092</v>
       </c>
       <c r="M6" t="n">
-        <v>136470.9655039266</v>
+        <v>136447.7411645438</v>
       </c>
       <c r="N6" t="n">
-        <v>288671.1364419141</v>
+        <v>288647.9121025316</v>
       </c>
       <c r="O6" t="n">
-        <v>288671.1364419142</v>
+        <v>288647.9121025316</v>
       </c>
       <c r="P6" t="n">
-        <v>288671.1364419142</v>
+        <v>288647.9121025315</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939376</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939376</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939376</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>249.5913511331156</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>105.9706131526086</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3625296570447</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>35.90194809183183</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>397.4828964454958</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>147.7602269278003</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>24.15449395818601</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>108.817013338252</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>229.9275620014092</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>367.6387245651729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -30480,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-8.096892806129865e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34862,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>312.4013251831016</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>72.80589558611109</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35014,13 +35014,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684635</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>274.5472142772262</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,19 +35102,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191105</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35418,10 +35418,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165107</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821539</v>
@@ -35655,10 +35655,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37311,13 +37311,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37788,19 +37788,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38025,10 +38025,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
